--- a/settings.xlsx
+++ b/settings.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\louis\Desktop\Genimo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{690EC0BD-DC3B-4557-A9E6-FEEB1B470FA1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABE58523-83A5-4740-9473-D3336BBAB4FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{E84AE109-E397-413D-BCB2-51096B94CF3F}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="13">
   <si>
     <t>id</t>
   </si>
@@ -463,7 +463,7 @@
   <dimension ref="A1:L2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N12" sqref="N12"/>
+      <selection activeCell="L7" sqref="L7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -517,38 +517,38 @@
       <c r="A2" t="s">
         <v>12</v>
       </c>
-      <c r="B2">
+      <c r="B2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2">
+        <v>4</v>
+      </c>
+      <c r="E2">
+        <v>5</v>
+      </c>
+      <c r="F2">
+        <v>6</v>
+      </c>
+      <c r="G2">
+        <v>7</v>
+      </c>
+      <c r="H2">
         <v>8</v>
       </c>
-      <c r="C2">
-        <v>5</v>
-      </c>
-      <c r="D2">
+      <c r="I2">
+        <v>9</v>
+      </c>
+      <c r="J2">
+        <v>10</v>
+      </c>
+      <c r="K2">
+        <v>3</v>
+      </c>
+      <c r="L2">
         <v>2</v>
-      </c>
-      <c r="E2">
-        <v>3</v>
-      </c>
-      <c r="F2">
-        <v>4</v>
-      </c>
-      <c r="G2">
-        <v>2</v>
-      </c>
-      <c r="H2">
-        <v>4</v>
-      </c>
-      <c r="I2">
-        <v>3</v>
-      </c>
-      <c r="J2">
-        <v>2</v>
-      </c>
-      <c r="K2">
-        <v>2</v>
-      </c>
-      <c r="L2">
-        <v>10</v>
       </c>
     </row>
   </sheetData>
